--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4FC3C9-D11B-8B4C-86C7-CDDA3DD613B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08B53F-E9DB-394C-97E3-586556D5CAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>is_role</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -632,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="132" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,12 +692,6 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>

--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08B53F-E9DB-394C-97E3-586556D5CAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C482F5CD-6CD5-4946-A1A2-5DA5210A4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="132" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,6 +692,9 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
@@ -716,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -744,6 +747,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -784,6 +790,9 @@
       <c r="D6" t="s">
         <v>43</v>
       </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -798,6 +807,9 @@
       <c r="D7" t="s">
         <v>43</v>
       </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -815,6 +827,9 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
@@ -841,6 +856,9 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -855,6 +873,9 @@
       <c r="D10" t="s">
         <v>46</v>
       </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -869,6 +890,9 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -887,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -912,6 +936,9 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -926,6 +953,9 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -940,6 +970,9 @@
       <c r="D15" t="s">
         <v>58</v>
       </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -953,6 +986,9 @@
       </c>
       <c r="D16" t="s">
         <v>58</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -968,6 +1004,9 @@
       <c r="D17" t="s">
         <v>58</v>
       </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -982,6 +1021,9 @@
       <c r="D18" t="s">
         <v>45</v>
       </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -996,6 +1038,9 @@
       <c r="D19" t="s">
         <v>59</v>
       </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1010,6 +1055,9 @@
       <c r="D20" t="s">
         <v>59</v>
       </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1024,6 +1072,9 @@
       <c r="D21" t="s">
         <v>59</v>
       </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1038,6 +1089,9 @@
       <c r="D22" t="s">
         <v>59</v>
       </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1056,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
@@ -1079,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1113,6 +1167,9 @@
       <c r="D25" t="s">
         <v>47</v>
       </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1127,6 +1184,9 @@
       <c r="D26" t="s">
         <v>47</v>
       </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1141,6 +1201,9 @@
       <c r="D27" t="s">
         <v>47</v>
       </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1159,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -1193,6 +1256,9 @@
       <c r="D29" t="s">
         <v>48</v>
       </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1207,6 +1273,9 @@
       <c r="D30" t="s">
         <v>48</v>
       </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1221,6 +1290,9 @@
       <c r="D31" t="s">
         <v>48</v>
       </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1238,6 +1310,9 @@
       <c r="E32">
         <v>4</v>
       </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
       <c r="G32" t="s">
         <v>40</v>
       </c>
@@ -1257,7 +1332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1270,8 +1345,11 @@
       <c r="D33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1284,8 +1362,11 @@
       <c r="D34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1298,8 +1379,11 @@
       <c r="D35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1311,6 +1395,9 @@
       </c>
       <c r="D36" t="s">
         <v>39</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C482F5CD-6CD5-4946-A1A2-5DA5210A4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5665493-27CE-A846-95C7-2647BFAAC854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>nicht einschlafen</t>
-  </si>
-  <si>
-    <t>Excecutive Roles</t>
   </si>
   <si>
     <t>Approve budgets, projects, and 
@@ -629,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="132" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -676,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -739,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -756,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -782,13 +779,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -799,13 +796,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -816,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -831,16 +828,16 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -848,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -865,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -882,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -899,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -914,13 +911,13 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -928,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -945,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -962,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -979,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -996,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -1013,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -1030,13 +1027,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -1047,13 +1044,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -1064,13 +1061,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -1081,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -1098,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1113,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1121,13 +1118,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1136,22 +1133,22 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>30</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>31</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>32</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>33</v>
-      </c>
-      <c r="L24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1159,13 +1156,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -1176,13 +1173,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -1193,13 +1190,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -1210,13 +1207,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -1225,22 +1222,22 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
         <v>36</v>
       </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="K28" t="s">
-        <v>38</v>
-      </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1248,13 +1245,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>15</v>
@@ -1265,13 +1262,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -1282,13 +1279,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -1299,13 +1296,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -1314,22 +1311,22 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
         <v>40</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
         <v>41</v>
       </c>
-      <c r="I32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" t="s">
-        <v>42</v>
-      </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,13 +1334,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -1354,13 +1351,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34">
         <v>15</v>
@@ -1371,13 +1368,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <v>15</v>
@@ -1388,13 +1385,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36">
         <v>15</v>

--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5665493-27CE-A846-95C7-2647BFAAC854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15081AE9-B2D5-AD4A-A7BF-B79FFE266B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -262,12 +262,75 @@
   <si>
     <t>is_role</t>
   </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>#fa3d3d</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>#c8deed</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>dark blue</t>
+  </si>
+  <si>
+    <t>#398400</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>#ffffff</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Advisory</t>
+  </si>
+  <si>
+    <t>Directors</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Democracy</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +343,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,21 +693,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,758 +716,1127 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>15</v>
+      <c r="F2" t="s">
+        <v>80</v>
       </c>
       <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
+      <c r="F3" t="s">
+        <v>80</v>
       </c>
       <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>57</v>
       </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="F22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="b">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="F25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>46</v>
       </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>46</v>
       </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="F29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>47</v>
       </c>
-      <c r="F30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>47</v>
       </c>
-      <c r="F31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="F33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="F34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>38</v>
       </c>
-      <c r="F36">
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15081AE9-B2D5-AD4A-A7BF-B79FFE266B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA62A8-2D6D-3842-A41F-4EEF448DFB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -284,9 +284,6 @@
     <t>dark blue</t>
   </si>
   <si>
-    <t>#398400</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>Core</t>
+  </si>
+  <si>
+    <t>#398399</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="132" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>67</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>68</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -801,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
@@ -851,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>74</v>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>69</v>
@@ -897,7 +897,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>74</v>
@@ -941,7 +941,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>69</v>
@@ -967,7 +967,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
@@ -987,7 +987,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
         <v>74</v>
@@ -1037,7 +1037,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
         <v>69</v>
@@ -1063,7 +1063,7 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>69</v>
@@ -1089,7 +1089,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
@@ -1109,7 +1109,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
         <v>74</v>
@@ -1150,7 +1150,7 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J14">
         <v>15</v>
@@ -1185,7 +1185,7 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
@@ -1211,7 +1211,7 @@
         <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
@@ -1237,7 +1237,7 @@
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
@@ -1263,7 +1263,7 @@
         <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>69</v>
@@ -1282,6 +1282,9 @@
       <c r="B19" t="s">
         <v>58</v>
       </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
         <v>72</v>
@@ -1315,7 +1318,7 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
         <v>69</v>
@@ -1341,7 +1344,7 @@
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
         <v>69</v>
@@ -1367,7 +1370,7 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
         <v>69</v>
@@ -1393,7 +1396,7 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
@@ -1413,7 +1416,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1422,7 +1425,13 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1441,6 +1450,9 @@
       <c r="B25" t="s">
         <v>46</v>
       </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
         <v>72</v>
@@ -1495,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
         <v>69</v>
@@ -1521,7 +1533,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
         <v>69</v>
@@ -1547,7 +1559,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
         <v>69</v>
@@ -1566,6 +1578,9 @@
       <c r="B29" t="s">
         <v>47</v>
       </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
         <v>72</v>
@@ -1620,7 +1635,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
         <v>69</v>
@@ -1646,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
         <v>69</v>
@@ -1672,7 +1687,7 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
         <v>69</v>
@@ -1691,6 +1706,9 @@
       <c r="B33" t="s">
         <v>38</v>
       </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
         <v>72</v>
@@ -1745,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
         <v>69</v>
@@ -1771,7 +1789,7 @@
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
         <v>69</v>
@@ -1797,7 +1815,7 @@
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
         <v>69</v>
@@ -1823,7 +1841,7 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>69</v>

--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA62A8-2D6D-3842-A41F-4EEF448DFB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7952B-9DDE-9943-96DF-FA8C3E2D6288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7952B-9DDE-9943-96DF-FA8C3E2D6288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A77EBE-6980-484B-9E9C-A3F7ED25C063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -284,9 +284,6 @@
     <t>dark blue</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>#ffffff</t>
   </si>
   <si>
@@ -324,6 +321,12 @@
   </si>
   <si>
     <t>#398399</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -693,22 +696,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="12.83203125" customWidth="1"/>
-    <col min="5" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="5" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>67</v>
@@ -725,43 +728,46 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -775,25 +781,28 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -801,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -810,34 +819,37 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
         <v>74</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -851,24 +863,27 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -877,19 +892,22 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -897,7 +915,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -906,28 +924,31 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
         <v>74</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -941,19 +962,22 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -967,19 +991,22 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -987,7 +1014,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -996,34 +1023,37 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
         <v>74</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>22</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1037,19 +1067,22 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1063,19 +1096,22 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1089,19 +1125,22 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1109,7 +1148,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1118,31 +1157,34 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
       <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
         <v>74</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
         <v>24</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>25</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1150,7 +1192,7 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1159,19 +1201,22 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>73</v>
       </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1185,19 +1230,22 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1211,19 +1259,22 @@
         <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1237,19 +1288,22 @@
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1263,19 +1317,22 @@
         <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1292,19 +1349,22 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>72</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>73</v>
       </c>
-      <c r="J19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1318,19 +1378,22 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1344,19 +1407,22 @@
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1370,19 +1436,22 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1396,19 +1465,22 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1416,7 +1488,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1425,25 +1497,28 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" t="s">
         <v>74</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24">
-        <v>15</v>
-      </c>
-      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1460,40 +1535,43 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>72</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>73</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="J25">
-        <v>15</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
         <v>28</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>29</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>30</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>31</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>32</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1507,19 +1585,22 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1533,19 +1614,22 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1559,19 +1643,22 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1588,40 +1675,43 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>72</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>73</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="J29">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="K29">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
         <v>35</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>21</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>30</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>36</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>37</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1635,19 +1725,22 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1661,19 +1754,22 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1687,19 +1783,22 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1716,40 +1815,43 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>72</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>73</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4</v>
       </c>
-      <c r="J33">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="L33" t="s">
         <v>39</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>40</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>30</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>41</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>37</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1763,19 +1865,22 @@
         <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1789,19 +1894,22 @@
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1815,19 +1923,22 @@
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1841,15 +1952,18 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
         <v>15</v>
       </c>
     </row>

--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A77EBE-6980-484B-9E9C-A3F7ED25C063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37F70C-6994-214C-A6F1-B3132DFAD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -102,18 +102,7 @@
     <t>unlimited</t>
   </si>
   <si>
-    <t>Fahrt nach ZH</t>
-  </si>
-  <si>
     <t>nicht einschlafen</t>
-  </si>
-  <si>
-    <t>Approve budgets, projects, and 
- partnerships. Oversee committees and 
- ensure alignment with the 2033 vision. 
- Actively support fundraising and 
- operational goals. Be familiar with OKR 
- theory.</t>
   </si>
   <si>
     <t>Contact with Migros Pioneer Fund &amp; Oak 
@@ -158,9 +147,6 @@
     <t>Philip</t>
   </si>
   <si>
-    <t>Fundraising</t>
-  </si>
-  <si>
     <t>We look for fitting grants and write 
  them.</t>
   </si>
@@ -327,6 +313,84 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Fund Raiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Philip</t>
+  </si>
+  <si>
+    <t>Individuals serving on the Board of Directors, providing leadership, expertise, and decision-making for the non-profit.</t>
+  </si>
+  <si>
+    <t>A group of experts offering non-binding guidance and recommendations to the organization.</t>
+  </si>
+  <si>
+    <t>Individuals providing specialized knowledge or mentorship to support organizational goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> External entities collaborating with the organization on mutual projects or goals.</t>
+  </si>
+  <si>
+    <t>Individuals or organizations officially affiliated with Carbon Copy, contributing to its success.</t>
+  </si>
+  <si>
+    <t>A member who actively participates in organizational activities and decision-making.</t>
+  </si>
+  <si>
+    <t>A member who supports the organization but does not actively participate.</t>
+  </si>
+  <si>
+    <t>Financial supporters who provide funding, often expecting social impact returns.</t>
+  </si>
+  <si>
+    <t>Oversees the allocation and management of funds to ensure financial sustainability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partnerships with other organizations or individuals to achieve shared objectives.</t>
+  </si>
+  <si>
+    <t>A specific initiative or collaboration focused on advancing democratic principles and participation.</t>
+  </si>
+  <si>
+    <t>Creates educational, promotional, or informational materials for organizational activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Designs and improves tools, systems, or products that support the organization's mission</t>
+  </si>
+  <si>
+    <t>Ensures proper collection, storage, and analysis of organizational data.</t>
+  </si>
+  <si>
+    <t>Manages internal and external messaging to engage stakeholders effectively.</t>
+  </si>
+  <si>
+    <t>Plans and executes events that support the organization's goals and engage its audience.</t>
+  </si>
+  <si>
+    <t>A project or initiative focused on advancing dialogue and civic engagement.</t>
+  </si>
+  <si>
+    <t>Coordinates and maintains relationships with collaborators and stakeholders.</t>
+  </si>
+  <si>
+    <t>Provides operational support to ensure the organization runs smoothly.</t>
+  </si>
+  <si>
+    <t>An individual or team responsible for generating donations and financial support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process of overseeing and maintaining relationships with the organization's members. </t>
+  </si>
+  <si>
+    <t>Designs and improves tools, systems, or products that support the organization's mission.</t>
+  </si>
+  <si>
+    <t>Essential programs and services that define the organization's purpose.</t>
   </si>
 </sst>
 </file>
@@ -699,7 +763,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -719,25 +783,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -761,10 +825,10 @@
         <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -781,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K2">
         <v>15</v>
@@ -800,6 +864,12 @@
       </c>
       <c r="M2" t="s">
         <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -810,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -819,16 +889,16 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -847,6 +917,12 @@
       </c>
       <c r="P3" t="s">
         <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -854,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -863,19 +939,31 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K4">
         <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -883,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -892,19 +980,28 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K5">
         <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -912,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -924,16 +1021,16 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -942,10 +1039,19 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" t="s">
-        <v>19</v>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -953,28 +1059,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -982,28 +1100,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K8">
         <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1011,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1023,16 +1153,16 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1041,16 +1171,25 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
         <v>20</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>21</v>
       </c>
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1058,28 +1197,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K10">
         <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1087,28 +1238,40 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K11">
         <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1116,28 +1279,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K12">
         <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1145,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1157,16 +1332,16 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1174,14 +1349,23 @@
       <c r="K13">
         <v>15</v>
       </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
       <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
         <v>24</v>
       </c>
-      <c r="N13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1189,31 +1373,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K14">
         <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1221,28 +1417,40 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K15">
         <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1250,245 +1458,341 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1497,16 +1801,16 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1514,37 +1818,46 @@
       <c r="K24">
         <v>15</v>
       </c>
+      <c r="L24" t="s">
+        <v>112</v>
+      </c>
       <c r="N24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -1553,138 +1866,177 @@
         <v>15</v>
       </c>
       <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
         <v>28</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>29</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>30</v>
       </c>
-      <c r="O25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" t="s">
-        <v>32</v>
-      </c>
       <c r="Q25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="R25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K26">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K28">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -1693,138 +2045,177 @@
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="R29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K30">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J33">
         <v>4</v>
@@ -1833,138 +2224,153 @@
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="R33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K37">
         <v>15</v>
+      </c>
+      <c r="L37" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/projects/sociocracy/cc_circle_test.xlsx
+++ b/projects/sociocracy/cc_circle_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrvt/Documents/GitHub/vega_projects/VEGA_gh/projects/sociocracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37F70C-6994-214C-A6F1-B3132DFAD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB01D766-B2CC-5647-808E-4608124E975A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -312,9 +312,6 @@
     <t>mask</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Christian</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t xml:space="preserve"> Philip</t>
   </si>
   <si>
-    <t>Individuals serving on the Board of Directors, providing leadership, expertise, and decision-making for the non-profit.</t>
-  </si>
-  <si>
     <t>A group of experts offering non-binding guidance and recommendations to the organization.</t>
   </si>
   <si>
@@ -391,6 +385,9 @@
   </si>
   <si>
     <t>Essential programs and services that define the organization's purpose.</t>
+  </si>
+  <si>
+    <t>Individuals serving on the Board of Directors,  providing leadership, expertise, and decision-making for the non-profit.</t>
   </si>
 </sst>
 </file>
@@ -453,10 +450,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,7 +771,7 @@
     <col min="2" max="3" width="12.83203125" customWidth="1"/>
     <col min="5" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73" customWidth="1"/>
     <col min="13" max="13" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,10 +869,10 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="K3">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N3" t="s">
@@ -922,7 +922,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -963,24 +963,27 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -991,75 +994,75 @@
       <c r="I5" t="s">
         <v>71</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
       <c r="K5">
         <v>15</v>
       </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="K6">
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1083,121 +1086,121 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1221,24 +1224,24 @@
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1262,42 +1265,48 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12">
         <v>15</v>
@@ -1305,31 +1314,37 @@
       <c r="L12" t="s">
         <v>97</v>
       </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -1338,86 +1353,74 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="K13">
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="Q13" t="s">
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14">
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
         <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1441,24 +1444,24 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q15" t="s">
         <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1482,24 +1485,24 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
         <v>31</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1523,42 +1526,45 @@
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q17" t="s">
         <v>31</v>
       </c>
       <c r="R17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K18">
         <v>15</v>
@@ -1567,65 +1573,62 @@
         <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
         <v>31</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K19">
         <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q19" t="s">
         <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1649,24 +1652,24 @@
         <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="s">
         <v>31</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1690,24 +1693,24 @@
         <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q21" t="s">
         <v>31</v>
       </c>
       <c r="R21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1731,74 +1734,80 @@
         <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q22" t="s">
         <v>31</v>
       </c>
       <c r="R22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23">
         <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N23" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="s">
         <v>31</v>
       </c>
       <c r="R23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -1807,92 +1816,86 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s">
+        <v>30</v>
       </c>
       <c r="Q24" t="s">
         <v>31</v>
       </c>
       <c r="R24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="K25">
         <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="N25" t="s">
         <v>28</v>
       </c>
-      <c r="O25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" t="s">
-        <v>30</v>
-      </c>
       <c r="Q25" t="s">
         <v>31</v>
       </c>
       <c r="R25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1925,15 +1928,15 @@
         <v>31</v>
       </c>
       <c r="R26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1957,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N27" t="s">
         <v>28</v>
@@ -1966,112 +1969,112 @@
         <v>31</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
       </c>
       <c r="K28">
         <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
       </c>
       <c r="N28" t="s">
         <v>28</v>
       </c>
+      <c r="O28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" t="s">
+        <v>34</v>
+      </c>
       <c r="Q28" t="s">
         <v>31</v>
       </c>
       <c r="R28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="K29">
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="N29" t="s">
         <v>28</v>
       </c>
-      <c r="O29" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" t="s">
-        <v>34</v>
-      </c>
       <c r="Q29" t="s">
         <v>31</v>
       </c>
       <c r="R29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2095,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N30" t="s">
         <v>28</v>
@@ -2104,15 +2107,15 @@
         <v>31</v>
       </c>
       <c r="R30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2136,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="N31" t="s">
         <v>28</v>
@@ -2145,112 +2148,103 @@
         <v>31</v>
       </c>
       <c r="R31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
       </c>
       <c r="K32">
         <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
       </c>
       <c r="N32" t="s">
         <v>28</v>
       </c>
+      <c r="O32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" t="s">
+        <v>34</v>
+      </c>
       <c r="Q32" t="s">
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="K33">
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" t="s">
-        <v>37</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>34</v>
       </c>
-      <c r="Q33" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2277,12 +2271,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2306,15 +2300,15 @@
         <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2338,39 +2332,7 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37">
-        <v>15</v>
-      </c>
-      <c r="L37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
